--- a/UML_Unified_Modeling_Language/XLSX/corrige_Vocabulaire_UML.xlsx
+++ b/UML_Unified_Modeling_Language/XLSX/corrige_Vocabulaire_UML.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathieumithridate\IdeaProjects\Dropbox\Mon PC (FORMATEURS17-19)\Documents\cours\uml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GADJI\Documents\web_dev_2023\UML_Unified_Modeling_Language\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="use_case" sheetId="1" r:id="rId1"/>
     <sheet name="activité" sheetId="2" r:id="rId2"/>
     <sheet name="séquence" sheetId="3" r:id="rId3"/>
+    <sheet name="Conception" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>Vocabulaire UML</t>
   </si>
@@ -173,13 +174,91 @@
   </si>
   <si>
     <t>Le diagramme de séquence est un diagramme qui représente les différentes actions sous une forme chronologique, on ne réprésente dessus qu'un seul scénario le cas nominal.</t>
+  </si>
+  <si>
+    <t>Vocabulaire CONCEPTION BDD</t>
+  </si>
+  <si>
+    <t>Une base de donnes est une collection de données structurées.</t>
+  </si>
+  <si>
+    <t>BDD Base de données</t>
+  </si>
+  <si>
+    <t>Un logiciel qui va servir à stocker, manipuler (créer, modifier, supprimer des données), gérer des données. De pouvoir retrouver, trier des données. Un exemple MariaDB, MySQL, oracle database, SQL server (Microsoft)…</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un langage de programmation qui va permettre d’exploiter des bases de données relationnelles.
+Il va permettre de créer, modifier, supprimer afficher des bases de données ainsi que leurs relations et données. </t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>MLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C’est un diagramme de merise qui va représenter la base de données de façon graphique. Il est généré depuis le MCD (transformation MCD -&gt; MLD). C’est depuis ce schéma que l’on va coder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans les bases de données relationnelles, une table est un ensemble de données organisées sous forme d'un tableau où les colonnes correspondent à des catégories d'information (une colonne peut stocker des numéros de téléphone, une autre des noms...) et les lignes à des enregistrements, également appelés entrées. </t>
+  </si>
+  <si>
+    <t>SGBDR système de gestion de base de données relationnelle</t>
+  </si>
+  <si>
+    <t>ATTRIBUT (CHAMPS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un attribut est une caractéristique d'une table susceptible d'être enregistrée dans la base de 
+données. Par exemple, une personne (entité), son nom et son adresse (des attributs). Les attributs 
+sont également appelés des champs ou des colonnes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENREGISTREMENT (TUPLE) </t>
+  </si>
+  <si>
+    <t>Un enregistrement correspond à une ligne d’une table dans une base de données.</t>
+  </si>
+  <si>
+    <t>CLE PRIMAIRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une clé primaire est l’identifiant unique d’une table. Elle permet d’identifier un enregistrement dans la table. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C’est un diagramme de merise qui va permettre de représenter les entités ainsi que les relations entre elles. C’est le diagramme qui va nous permettre de générer le MLD.
+</t>
+  </si>
+  <si>
+    <t>UNE CARDINALITE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La cardinalité d'une association permet de représenter le nombre minimum et maximum d'instances qui sont autorisées à participer à la relation. La cardinalité est définie pour les deux sens de la relation. </t>
+  </si>
+  <si>
+    <t>UNE CLE ETRANGERE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une clé étrangère ou Foreign key est un attribut qui fait référence à un enregistrement de la table avec laquelle elle est liée. Elle va nous permettre de récupérer la valeur correspondante dans la table liée. </t>
+  </si>
+  <si>
+    <t>TABLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +275,32 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -223,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -242,6 +347,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,19 +641,19 @@
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="43.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="31.5" customHeight="1">
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="31.5" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -552,7 +664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="60">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -563,7 +675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="45">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -574,7 +686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="60">
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -585,7 +697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="60">
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
@@ -596,7 +708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="60">
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
@@ -607,7 +719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="75">
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
@@ -632,19 +744,19 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="43.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="20.25">
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="15.75">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -655,7 +767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="75">
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
@@ -666,7 +778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="30">
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
@@ -677,7 +789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="75">
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
@@ -688,7 +800,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="75">
       <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
@@ -699,7 +811,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="45">
       <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
@@ -710,7 +822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="75">
       <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
@@ -721,7 +833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="45">
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
@@ -732,7 +844,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="45">
       <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
@@ -743,7 +855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="45">
       <c r="B11" s="3" t="s">
         <v>36</v>
       </c>
@@ -763,23 +875,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="43.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" ht="20.25">
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="15.75">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -790,7 +902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="30">
       <c r="B3" s="3" t="s">
         <v>37</v>
       </c>
@@ -801,7 +913,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="30">
       <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
@@ -812,7 +924,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="30">
       <c r="B5" s="3" t="s">
         <v>41</v>
       </c>
@@ -823,7 +935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6" s="3" t="s">
         <v>43</v>
       </c>
@@ -834,7 +946,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="30">
       <c r="B7" s="3" t="s">
         <v>45</v>
       </c>
@@ -845,7 +957,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="60">
       <c r="B8" s="3" t="s">
         <v>47</v>
       </c>
@@ -859,4 +971,133 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:G35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="62.7109375" customWidth="1"/>
+    <col min="5" max="5" width="80.28515625" customWidth="1"/>
+    <col min="7" max="7" width="68.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:7" ht="19.5">
+      <c r="E1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="3" spans="3:7" ht="18">
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="15.75">
+      <c r="C5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="63">
+      <c r="C7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" ht="63">
+      <c r="C11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7" ht="63">
+      <c r="C14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="47.25">
+      <c r="C17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="63">
+      <c r="C20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="31.5">
+      <c r="C22" s="9"/>
+      <c r="E22" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="78.75">
+      <c r="C23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="15.75">
+      <c r="C26" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="47.25">
+      <c r="C29" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="47.25">
+      <c r="C32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" ht="45">
+      <c r="C35" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>